--- a/documents/Design/Sufficiency&Understandability.xlsx
+++ b/documents/Design/Sufficiency&Understandability.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="StateTransition" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="DashboardWireFrame" sheetId="4" r:id="rId4"/>
     <sheet name="LoginWireFrame" sheetId="5" r:id="rId5"/>
     <sheet name="NewPostWireFrame" sheetId="6" r:id="rId6"/>
+    <sheet name="SignUpWireFrame" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="15">
   <si>
     <t>Sufficiency</t>
   </si>
@@ -456,7 +457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1333,7 +1334,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>10</v>
@@ -1458,7 +1459,7 @@
       </c>
       <c r="B12" s="1">
         <f>AVERAGE(B6:B10)</f>
-        <v>0.18</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -1478,7 +1479,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,4 +1617,149 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D1" s="4">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <f>AVERAGE(B6:B10)</f>
+        <v>0.05</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <f>AVERAGE(G6:G10)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/Design/Sufficiency&Understandability.xlsx
+++ b/documents/Design/Sufficiency&Understandability.xlsx
@@ -1624,7 +1624,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,7 +1689,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="G12" s="1">
         <f>AVERAGE(G6:G10)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Design/Sufficiency&Understandability.xlsx
+++ b/documents/Design/Sufficiency&Understandability.xlsx
@@ -1624,7 +1624,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,7 +1706,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="G12" s="1">
         <f>AVERAGE(G6:G10)</f>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Design/Sufficiency&Understandability.xlsx
+++ b/documents/Design/Sufficiency&Understandability.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="StateTransition" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="15">
   <si>
     <t>Sufficiency</t>
   </si>
@@ -132,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -141,6 +141,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1174,15 +1175,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
     <col min="2" max="2" width="50.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
@@ -1323,9 +1324,135 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D14" s="4">
+        <v>42693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1">
+        <f>AVERAGE(B18:B22)</f>
+        <v>0.35933333333333334</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="1">
+        <f>AVERAGE(G18:G22)</f>
+        <v>0.4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1623,7 +1750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/documents/Design/Sufficiency&Understandability.xlsx
+++ b/documents/Design/Sufficiency&Understandability.xlsx
@@ -1177,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,7 +1380,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="5">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="G24" s="1">
         <f>AVERAGE(G18:G22)</f>
-        <v>0.4</v>
+        <v>0.55999999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Design/Sufficiency&Understandability.xlsx
+++ b/documents/Design/Sufficiency&Understandability.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="StateTransition" sheetId="1" r:id="rId1"/>
@@ -1177,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,7 +1397,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="5">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1431,7 +1431,7 @@
         <v>14</v>
       </c>
       <c r="G22" s="5">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="G24" s="1">
         <f>AVERAGE(G18:G22)</f>
-        <v>0.55999999999999994</v>
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1867,7 +1867,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="G12" s="1">
         <f>AVERAGE(G6:G10)</f>
-        <v>0.8</v>
+        <v>0.98000000000000009</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Design/Sufficiency&Understandability.xlsx
+++ b/documents/Design/Sufficiency&Understandability.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="StateTransition" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="15">
   <si>
     <t>Sufficiency</t>
   </si>
@@ -1603,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,6 +1741,130 @@
         <v>0.6</v>
       </c>
     </row>
+    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D15" s="4">
+        <v>42709</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1">
+        <f>AVERAGE(B20:B24)</f>
+        <v>0.2533333333333333</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="1">
+        <f>AVERAGE(G20:G24)</f>
+        <v>0.80999999999999994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1750,7 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/documents/Design/Sufficiency&Understandability.xlsx
+++ b/documents/Design/Sufficiency&Understandability.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
   </bookViews>
   <sheets>
-    <sheet name="StateTransition" sheetId="1" r:id="rId1"/>
-    <sheet name="UseCase" sheetId="2" r:id="rId2"/>
-    <sheet name="System Design" sheetId="3" r:id="rId3"/>
-    <sheet name="DashboardWireFrame" sheetId="4" r:id="rId4"/>
-    <sheet name="LoginWireFrame" sheetId="5" r:id="rId5"/>
-    <sheet name="NewPostWireFrame" sheetId="6" r:id="rId6"/>
-    <sheet name="SignUpWireFrame" sheetId="7" r:id="rId7"/>
+    <sheet name="Charts" sheetId="8" r:id="rId1"/>
+    <sheet name="StateTransition" sheetId="1" r:id="rId2"/>
+    <sheet name="UseCase" sheetId="2" r:id="rId3"/>
+    <sheet name="System Design" sheetId="3" r:id="rId4"/>
+    <sheet name="DashboardWireFrame" sheetId="4" r:id="rId5"/>
+    <sheet name="LoginWireFrame" sheetId="5" r:id="rId6"/>
+    <sheet name="NewPostWireFrame" sheetId="6" r:id="rId7"/>
+    <sheet name="SignUpWireFrame" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="24">
   <si>
     <t>Sufficiency</t>
   </si>
@@ -76,11 +77,41 @@
   <si>
     <t>Yash</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>System Design</t>
+  </si>
+  <si>
+    <t>Dash Board</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>New Post</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
+  </si>
+  <si>
+    <t>State Transition</t>
+  </si>
+  <si>
+    <t>Use Case</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -142,6 +173,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -157,6 +189,3018 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Suffiiency:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Requirements Covered</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>State Transition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F447-4FCE-9DD4-F0205A73FE8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Use Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F447-4FCE-9DD4-F0205A73FE8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>System Design</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F447-4FCE-9DD4-F0205A73FE8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dash Board</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F447-4FCE-9DD4-F0205A73FE8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Login</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F447-4FCE-9DD4-F0205A73FE8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>New Post</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F447-4FCE-9DD4-F0205A73FE8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sign Up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$H$3:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2" formatCode="0%">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F447-4FCE-9DD4-F0205A73FE8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="311566400"/>
+        <c:axId val="311566728"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="311566400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311566728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="311566728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% of reqs covered</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311566400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Understandability:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Value Understood</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>State Transition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$K$3:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$L$3:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0678-49CB-96E6-2D390521270C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Use Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$K$3:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$M$3:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0678-49CB-96E6-2D390521270C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>System Design</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$K$3:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$N$3:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0678-49CB-96E6-2D390521270C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dash Board</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$K$3:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$O$3:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0678-49CB-96E6-2D390521270C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Login</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$K$3:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$P$3:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0678-49CB-96E6-2D390521270C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>New Post</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$K$3:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$Q$3:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0678-49CB-96E6-2D390521270C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sign Up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$K$3:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$R$3:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2" formatCode="0%">
+                  <c:v>0.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0678-49CB-96E6-2D390521270C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="388218264"/>
+        <c:axId val="388215312"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="388218264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388215312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="388215312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% value understood</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388218264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0EA2923-D123-4E03-8BC7-79D3964BB618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D8BC09B-5428-414C-AA7C-2DBD52282BF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,10 +3500,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>42676</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K3" s="7">
+        <v>42676</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>42682</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K4" s="7">
+        <v>42682</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>42691</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K5" s="7">
+        <v>42691</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>42693</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="K6" s="7">
+        <v>42693</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>42709</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="K7" s="7">
+        <v>42709</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,38 +3717,68 @@
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="28.85546875" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D1" s="4">
         <v>42676</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3" s="7">
+        <v>42676</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4" s="7">
+        <v>42682</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -517,7 +3794,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -533,7 +3810,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -549,7 +3826,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -565,7 +3842,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -581,13 +3858,13 @@
         <v>0.88000000000000012</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D12" s="4">
         <v>42682</v>
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -600,10 +3877,10 @@
         <v>10</v>
       </c>
       <c r="G14" s="5">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -619,7 +3896,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -631,7 +3908,9 @@
       <c r="F16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="5">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -646,7 +3925,9 @@
       <c r="F17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -661,7 +3942,9 @@
       <c r="F18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="5">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -676,7 +3959,7 @@
       </c>
       <c r="G20" s="1">
         <f>AVERAGE(G14:G18)</f>
-        <v>0.85000000000000009</v>
+        <v>0.84000000000000008</v>
       </c>
     </row>
   </sheetData>
@@ -685,12 +3968,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K3:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,38 +3984,67 @@
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D1" s="4">
         <v>42676</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="7">
+        <v>42676</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="5">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="7">
+        <v>42682</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -748,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -764,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -780,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -796,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -812,21 +4124,21 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D11" s="4">
         <v>42682</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="D12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -840,7 +4152,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -857,7 +4169,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -905,7 +4217,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="5">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -921,7 +4233,7 @@
       </c>
       <c r="G20" s="1">
         <f>AVERAGE(G14:G18)</f>
-        <v>0.7</v>
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -929,12 +4241,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,38 +4257,67 @@
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D1" s="4">
         <v>42676</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="7">
+        <v>42676</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="5">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="7">
+        <v>42682</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -992,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1008,7 +4349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1024,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1040,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1056,21 +4397,21 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D11" s="4">
         <v>42682</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="D12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1084,7 +4425,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1101,7 +4442,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1149,7 +4490,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="5">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1165,7 +4506,7 @@
       </c>
       <c r="G20" s="1">
         <f>AVERAGE(G14:G18)</f>
-        <v>0.7</v>
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -1173,12 +4514,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,15 +4530,17 @@
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C1" s="4"/>
       <c r="D1" s="4">
         <v>42682</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1205,20 +4548,47 @@
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="7">
+        <v>42682</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="7">
+        <v>42693</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1232,7 +4602,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1249,7 +4619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1266,7 +4636,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1283,7 +4653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1300,7 +4670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1316,22 +4686,22 @@
         <v>0.94000000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="D12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D14" s="4">
         <v>42693</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -1340,7 +4710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1456,12 +4826,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,14 +4840,27 @@
     <col min="2" max="2" width="50" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D1" s="4">
         <v>42682</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1485,20 +4868,32 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="7">
+        <v>42682</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="7"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1512,7 +4907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1529,7 +4924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1546,7 +4941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1563,7 +4958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1580,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1601,12 +4996,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,14 +5010,17 @@
     <col min="2" max="2" width="51.140625" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D1" s="4">
         <v>42682</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1630,20 +5028,47 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="7">
+        <v>42682</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="7">
+        <v>42709</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1657,7 +5082,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1674,7 +5099,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1691,7 +5116,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1708,7 +5133,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1725,7 +5150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1741,7 +5166,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D15" s="4">
         <v>42709</v>
       </c>
@@ -1870,12 +5295,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,14 +5309,27 @@
     <col min="2" max="2" width="50.140625" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D1" s="4">
         <v>42691</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1899,20 +5337,32 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="7">
+        <v>42691</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="7"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1926,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1943,7 +5393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1960,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1977,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1994,7 +5444,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>

--- a/documents/Design/Sufficiency&Understandability.xlsx
+++ b/documents/Design/Sufficiency&Understandability.xlsx
@@ -110,7 +110,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -173,7 +173,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -268,87 +268,81 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$B$2</c:f>
+              <c:f>Charts!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>State Transition</c:v>
+                  <c:v>2-Nov</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>Charts!$A$3:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>Charts!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>42676</c:v>
+                  <c:v>State Transition</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42682</c:v>
+                  <c:v>Use Case</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42691</c:v>
+                  <c:v>System Design</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42693</c:v>
+                  <c:v>Dash Board</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42709</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Login</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Post</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sign Up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$B$3:$B$7</c:f>
+              <c:f>Charts!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F447-4FCE-9DD4-F0205A73FE8D}"/>
@@ -360,79 +354,81 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$C$2</c:f>
+              <c:f>Charts!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Use Case</c:v>
+                  <c:v>8-Nov</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>Charts!$A$3:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>Charts!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>42676</c:v>
+                  <c:v>State Transition</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42682</c:v>
+                  <c:v>Use Case</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42691</c:v>
+                  <c:v>System Design</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42693</c:v>
+                  <c:v>Dash Board</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42709</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Login</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Post</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sign Up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$C$3:$C$7</c:f>
+              <c:f>Charts!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.73</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F447-4FCE-9DD4-F0205A73FE8D}"/>
@@ -444,79 +440,66 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$D$2</c:f>
+              <c:f>Charts!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>System Design</c:v>
+                  <c:v>17-Nov</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>Charts!$A$3:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>Charts!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>42676</c:v>
+                  <c:v>State Transition</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42682</c:v>
+                  <c:v>Use Case</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42691</c:v>
+                  <c:v>System Design</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42693</c:v>
+                  <c:v>Dash Board</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42709</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Login</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Post</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sign Up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$D$3:$D$7</c:f>
+              <c:f>Charts!$B$5:$H$5</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.79</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="6" formatCode="0%">
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F447-4FCE-9DD4-F0205A73FE8D}"/>
@@ -528,79 +511,66 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$E$2</c:f>
+              <c:f>Charts!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dash Board</c:v>
+                  <c:v>19-Nov</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>Charts!$A$3:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>Charts!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>42676</c:v>
+                  <c:v>State Transition</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42682</c:v>
+                  <c:v>Use Case</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42691</c:v>
+                  <c:v>System Design</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42693</c:v>
+                  <c:v>Dash Board</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42709</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Login</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Post</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sign Up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$E$3:$E$7</c:f>
+              <c:f>Charts!$B$6:$H$6</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="3" formatCode="0%">
                   <c:v>0.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F447-4FCE-9DD4-F0205A73FE8D}"/>
@@ -612,250 +582,69 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$F$2</c:f>
+              <c:f>Charts!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Login</c:v>
+                  <c:v>5-Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>Charts!$A$3:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>Charts!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>42676</c:v>
+                  <c:v>State Transition</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42682</c:v>
+                  <c:v>Use Case</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42691</c:v>
+                  <c:v>System Design</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42693</c:v>
+                  <c:v>Dash Board</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42709</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Login</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Post</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sign Up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$F$3:$F$7</c:f>
+              <c:f>Charts!$B$7:$H$7</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="1">
-                  <c:v>0.23</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="5" formatCode="0%">
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-F447-4FCE-9DD4-F0205A73FE8D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>New Post</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Charts!$A$3:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>42676</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42682</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42691</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42693</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42709</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$G$3:$G$7</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-F447-4FCE-9DD4-F0205A73FE8D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sign Up</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Charts!$A$3:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>42676</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42682</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42691</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42693</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42709</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$H$3:$H$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="2" formatCode="0%">
-                  <c:v>0.05</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F447-4FCE-9DD4-F0205A73FE8D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -867,19 +656,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="311566400"/>
         <c:axId val="311566728"/>
-      </c:lineChart>
-      <c:dateAx>
+      </c:barChart>
+      <c:catAx>
         <c:axId val="311566400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -919,9 +707,10 @@
         <c:crossAx val="311566728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="311566728"/>
         <c:scaling>
@@ -1186,87 +975,81 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$L$2</c:f>
+              <c:f>Charts!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>State Transition</c:v>
+                  <c:v>2-Nov</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>Charts!$K$3:$K$7</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>Charts!$L$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>42676</c:v>
+                  <c:v>State Transition</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42682</c:v>
+                  <c:v>Use Case</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42691</c:v>
+                  <c:v>System Design</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42693</c:v>
+                  <c:v>Dash Board</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42709</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Login</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Post</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sign Up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$L$3:$L$7</c:f>
+              <c:f>Charts!$L$3:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84</c:v>
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0678-49CB-96E6-2D390521270C}"/>
@@ -1278,79 +1061,81 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$M$2</c:f>
+              <c:f>Charts!$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Use Case</c:v>
+                  <c:v>8-Nov</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>Charts!$K$3:$K$7</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>Charts!$L$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>42676</c:v>
+                  <c:v>State Transition</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42682</c:v>
+                  <c:v>Use Case</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42691</c:v>
+                  <c:v>System Design</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42693</c:v>
+                  <c:v>Dash Board</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42709</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Login</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Post</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sign Up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$M$3:$M$7</c:f>
+              <c:f>Charts!$L$4:$R$4</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.38</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0678-49CB-96E6-2D390521270C}"/>
@@ -1362,79 +1147,66 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$N$2</c:f>
+              <c:f>Charts!$K$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>System Design</c:v>
+                  <c:v>17-Nov</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>Charts!$K$3:$K$7</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>Charts!$L$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>42676</c:v>
+                  <c:v>State Transition</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42682</c:v>
+                  <c:v>Use Case</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42691</c:v>
+                  <c:v>System Design</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42693</c:v>
+                  <c:v>Dash Board</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42709</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Login</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Post</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sign Up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$N$3:$N$7</c:f>
+              <c:f>Charts!$L$5:$R$5</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.86</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="6" formatCode="0%">
+                  <c:v>0.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0678-49CB-96E6-2D390521270C}"/>
@@ -1446,79 +1218,66 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$O$2</c:f>
+              <c:f>Charts!$K$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dash Board</c:v>
+                  <c:v>19-Nov</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>Charts!$K$3:$K$7</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>Charts!$L$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>42676</c:v>
+                  <c:v>State Transition</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42682</c:v>
+                  <c:v>Use Case</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42691</c:v>
+                  <c:v>System Design</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42693</c:v>
+                  <c:v>Dash Board</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42709</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Login</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Post</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sign Up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$O$3:$O$7</c:f>
+              <c:f>Charts!$L$6:$R$6</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="1">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="3" formatCode="0%">
                   <c:v>0.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0678-49CB-96E6-2D390521270C}"/>
@@ -1530,250 +1289,69 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$P$2</c:f>
+              <c:f>Charts!$K$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Login</c:v>
+                  <c:v>5-Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>Charts!$K$3:$K$7</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>Charts!$L$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>42676</c:v>
+                  <c:v>State Transition</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42682</c:v>
+                  <c:v>Use Case</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42691</c:v>
+                  <c:v>System Design</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42693</c:v>
+                  <c:v>Dash Board</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42709</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Login</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Post</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sign Up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$P$3:$P$7</c:f>
+              <c:f>Charts!$L$7:$R$7</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="5" formatCode="0%">
+                  <c:v>0.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0678-49CB-96E6-2D390521270C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$Q$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>New Post</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Charts!$K$3:$K$7</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>42676</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42682</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42691</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42693</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42709</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$Q$3:$Q$7</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="1">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.81</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-0678-49CB-96E6-2D390521270C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$R$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sign Up</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Charts!$K$3:$K$7</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>42676</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42682</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42691</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42693</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42709</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$R$3:$R$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="2" formatCode="0%">
-                  <c:v>0.98</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-0678-49CB-96E6-2D390521270C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1785,19 +1363,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="388218264"/>
         <c:axId val="388215312"/>
-      </c:lineChart>
-      <c:dateAx>
+      </c:barChart>
+      <c:catAx>
         <c:axId val="388218264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1837,9 +1414,10 @@
         <c:crossAx val="388215312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="388215312"/>
         <c:scaling>
@@ -3502,8 +3080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
